--- a/biology/Médecine/Métronidazole/Métronidazole.xlsx
+++ b/biology/Médecine/Métronidazole/Métronidazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le métronidazole est un antibiotique et antiparasitaire appartenant aux nitroimidazoles. Il inhibe la synthèse des acides nucléiques et est utilisé pour le traitement des infections liées à des bactéries anaérobies ainsi qu'à des protozoaires.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une recherche de traitement contre le Trichomonas vaginalis mène aux premiers essais cliniques en 1959 du métronidazole contre ce parasite. Des chercheurs en France montrent l'efficacité de cette molécule contre le parasite, continuant en 1960 avec des études positives au Royaume-Uni confirmant son usage contre le trichomonas[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une recherche de traitement contre le Trichomonas vaginalis mène aux premiers essais cliniques en 1959 du métronidazole contre ce parasite. Des chercheurs en France montrent l'efficacité de cette molécule contre le parasite, continuant en 1960 avec des études positives au Royaume-Uni confirmant son usage contre le trichomonas.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comprimé de Métronidazole doit être pris lors d’un repas sans boissons alcoolisées (à proscrire pendant le traitement et 24 h après) quotidiennement pendant une durée d'une semaine à dix jours. Cette posologie permet d’éviter les effets secondaires liés à la prise d’antibiotiques.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été montré in vitro que le métronidazole réagissait à température ordinaire avec le glutathion[5]. Sa structure est à comparer avec celle de l'imurel (qui est aussi un nitroimidazole), et il est logique de penser qu'il peut être une source d'immunodéficience. Il peut parfois provoquer une neutropénie ou une thrombopénie[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été montré in vitro que le métronidazole réagissait à température ordinaire avec le glutathion. Sa structure est à comparer avec celle de l'imurel (qui est aussi un nitroimidazole), et il est logique de penser qu'il peut être une source d'immunodéficience. Il peut parfois provoquer une neutropénie ou une thrombopénie. 
 Le métronidazole est très amer et a un arrière-goût métallique persistant qui entraîne de l'inappétence et du dégoût pour la nourriture. Il peut provoquer des maux de tête. L'usage à longue durée et à forte dose peut entraîner des neuropathies périphériques. 
 Le métronidazole peut provoquer un effet Antabuse : l'association avec l'alcool sous quelque forme que ce soit (y compris sirop antitussif) est à proscrire car elle peut provoquer un flush facial, vasodilatation périphérique intense, sueurs abondantes, nausées, vertige, tachycardie avec hypotension. 
 La prise de métronidazole donne une couleur foncée à l'urine.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métronidazole peut être administré sous forme orale, intraveineuse ou topique. Sous forme orale, il est absorbé et passe dans la circulation où il a une demi-vie de 6 à 8 heures. Il pénètre dans le liquide cérébrospinal. Il est métabolisé par le foie et d'élimination urinaire.
 Comme le métronidazole traverse la barrière placentaire, il faut l'utiliser avec précaution pendant la grossesse. Au Canada, il est particulièrement contre-indiqué durant le 1er trimestre, à moins qu'aucun autre traitement ne soit disponible.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,26 +669,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Formes orales
-nom générique : Métronidazole (per os)
+          <t>Formes orales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nom générique : Métronidazole (per os)
 noms commerciaux : Arilin (Suisse), Flagyl comprimés oraux (Belgique, Canada, France, Suisse, Argentine), Metrolag (Suisse), Metronidazol Alpharma (Suisse), Zyrdol (Maroc)
-classe : Antibiotique nitroimidazole
-Formes parentérales
-nom générique : Métronidazole (parentéral)
-noms commerciaux : Flagyl pour perfusions (Belgique, France) réservées à l'usage hospitalier, Metrolag (Suisse), Métronidazole i.v. B. Braun (Suisse), Métronidazole générique (Baxter, Biosedra, Braun, Lavoisier, Maco Pharma, Merck) (France)
-classe : Antibiotique nitroimidazole
-Formes topiques
-Formes dermiques
-nom générique : Métronidazole (dermique)
-noms commerciaux : Périlox et Périlox-color (Suisse), Rosalox (Suisse), Rosiced (France), Rozacreme (France), Rozagel (France), Rozex (Belgique, France, Suisse) (réservé au traitement de l'acné rosacée ; usage interdit pendant la grossesse)
-classe : Antibiotique nitroimidazole
-Formes vaginales
-nom générique : Métronidazole (topique vaginal)
-noms commerciaux : Ovules Flagyl (Belgique, France, Suisse)
-classe : Antibiotique nitroimidazole
-Divers : usage dentaire
-nom générique : Métronidazole (usage dentaire)
-noms commerciaux : Collazole (France), Gel dentaire Elyzol (France, Suisse), Grinazole (France), Imizine (France), Metrocol (France), Metrogene. Non commercialisé pour cet usage en Belgique
 classe : Antibiotique nitroimidazole</t>
         </is>
       </c>
@@ -679,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M%C3%A9tronidazole</t>
+          <t>Métronidazole</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,12 +702,178 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Spécialités pharmaceutiques à base de métronidazole</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Formes parentérales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nom générique : Métronidazole (parentéral)
+noms commerciaux : Flagyl pour perfusions (Belgique, France) réservées à l'usage hospitalier, Metrolag (Suisse), Métronidazole i.v. B. Braun (Suisse), Métronidazole générique (Baxter, Biosedra, Braun, Lavoisier, Maco Pharma, Merck) (France)
+classe : Antibiotique nitroimidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Métronidazole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tronidazole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Spécialités pharmaceutiques à base de métronidazole</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Formes topiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Formes dermiques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nom générique : Métronidazole (dermique)
+noms commerciaux : Périlox et Périlox-color (Suisse), Rosalox (Suisse), Rosiced (France), Rozacreme (France), Rozagel (France), Rozex (Belgique, France, Suisse) (réservé au traitement de l'acné rosacée ; usage interdit pendant la grossesse)
+classe : Antibiotique nitroimidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Métronidazole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tronidazole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Spécialités pharmaceutiques à base de métronidazole</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Formes topiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Formes vaginales</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nom générique : Métronidazole (topique vaginal)
+noms commerciaux : Ovules Flagyl (Belgique, France, Suisse)
+classe : Antibiotique nitroimidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Métronidazole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tronidazole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Spécialités pharmaceutiques à base de métronidazole</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Formes topiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Divers : usage dentaire</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nom générique : Métronidazole (usage dentaire)
+noms commerciaux : Collazole (France), Gel dentaire Elyzol (France, Suisse), Grinazole (France), Imizine (France), Metrocol (France), Metrogene. Non commercialisé pour cet usage en Belgique
+classe : Antibiotique nitroimidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Métronidazole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9tronidazole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métronidazole fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[7].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métronidazole fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
